--- a/doc_new/4.服务器配置文档/使用物品配置.xlsx
+++ b/doc_new/4.服务器配置文档/使用物品配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="使用物品(template_draw_lottery)" sheetId="2" r:id="rId1"/>
@@ -1490,30 +1490,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{D69D7F35-997C-44B9-85BF-DA55DFA1458A}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{18619185-C510-411A-8451-0877EE80409B}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{0ECA8F20-DD5E-4EDB-84E1-D472918BCE69}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{5F80B99C-87F0-4F37-9D4C-82F719DCF6ED}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{9FAC24E9-C0D1-49F7-A66A-A1C77654E329}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{4771AB55-D65B-4AE3-BF40-47DE35BB667A}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{1E9BE900-7459-4351-B581-C7A3A34F8C87}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{811573CE-2766-4845-9712-C43D6242F45C}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{95231B04-9344-4E2C-80ED-F3B0BF503B8D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EA77B739-A316-4693-B42A-5F1FF6DC38AF}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -7743,9 +7743,9 @@
   <dimension ref="A1:W371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J356" sqref="J356"/>
+      <selection pane="bottomLeft" activeCell="G363" sqref="G363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:23">
       <c r="A6" s="17"/>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="4">
@@ -8115,7 +8115,7 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:23">
       <c r="A8" s="17"/>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="4">
@@ -8229,7 +8229,7 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:23">
       <c r="A10" s="17"/>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="4">
@@ -8339,7 +8339,7 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:23">
       <c r="A12" s="17"/>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="4">
@@ -12582,7 +12582,7 @@
     <row r="108" ht="17.25" spans="1:14">
       <c r="A108" s="15"/>
       <c r="B108" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="4">
         <v>2901</v>
@@ -12626,7 +12626,7 @@
     <row r="109" ht="17.25" spans="1:14">
       <c r="A109" s="15"/>
       <c r="B109" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2">
         <v>2902</v>
@@ -12670,7 +12670,7 @@
     <row r="110" ht="17.25" spans="1:14">
       <c r="A110" s="15"/>
       <c r="B110" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C110" s="4">
         <v>2903</v>
@@ -12714,7 +12714,7 @@
     <row r="111" ht="17.25" spans="1:14">
       <c r="A111" s="15"/>
       <c r="B111" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2">
         <v>2904</v>
@@ -12758,7 +12758,7 @@
     <row r="112" ht="17.25" spans="1:14">
       <c r="A112" s="15"/>
       <c r="B112" s="1">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C112" s="4">
         <v>2905</v>
@@ -12802,7 +12802,7 @@
     <row r="113" ht="17.25" spans="1:14">
       <c r="A113" s="15"/>
       <c r="B113" s="1">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2">
         <v>2906</v>
@@ -12846,7 +12846,7 @@
     <row r="114" ht="17.25" spans="1:14">
       <c r="A114" s="15"/>
       <c r="B114" s="1">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C114" s="4">
         <v>2907</v>
@@ -12890,7 +12890,7 @@
     <row r="115" ht="17.25" spans="1:14">
       <c r="A115" s="15"/>
       <c r="B115" s="1">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2">
         <v>2908</v>
@@ -12934,7 +12934,7 @@
     <row r="116" ht="17.25" spans="1:14">
       <c r="A116" s="15"/>
       <c r="B116" s="1">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C116" s="4">
         <v>2909</v>
@@ -12978,7 +12978,7 @@
     <row r="117" ht="17.25" spans="1:14">
       <c r="A117" s="15"/>
       <c r="B117" s="1">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2">
         <v>2910</v>
@@ -13022,7 +13022,7 @@
     <row r="118" ht="17.25" spans="1:14">
       <c r="A118" s="15"/>
       <c r="B118" s="1">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C118" s="4">
         <v>2911</v>
@@ -13066,7 +13066,7 @@
     <row r="119" ht="17.25" spans="1:14">
       <c r="A119" s="15"/>
       <c r="B119" s="1">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2">
         <v>2912</v>
@@ -13110,7 +13110,7 @@
     <row r="120" ht="17.25" spans="1:14">
       <c r="A120" s="15"/>
       <c r="B120" s="1">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C120" s="4">
         <v>2913</v>
@@ -13154,7 +13154,7 @@
     <row r="121" ht="17.25" spans="1:14">
       <c r="A121" s="15"/>
       <c r="B121" s="1">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C121" s="2">
         <v>2914</v>
@@ -13198,7 +13198,7 @@
     <row r="122" ht="17.25" spans="1:14">
       <c r="A122" s="15"/>
       <c r="B122" s="1">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C122" s="4">
         <v>2915</v>
@@ -13242,7 +13242,7 @@
     <row r="123" ht="17.25" spans="1:14">
       <c r="A123" s="15"/>
       <c r="B123" s="1">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2">
         <v>2916</v>
@@ -13286,7 +13286,7 @@
     <row r="124" ht="17.25" spans="1:14">
       <c r="A124" s="15"/>
       <c r="B124" s="1">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C124" s="4">
         <v>2917</v>
@@ -13330,7 +13330,7 @@
     <row r="125" ht="17.25" spans="1:14">
       <c r="A125" s="15"/>
       <c r="B125" s="1">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C125" s="2">
         <v>2918</v>
@@ -13374,7 +13374,7 @@
     <row r="126" ht="17.25" spans="1:14">
       <c r="A126" s="15"/>
       <c r="B126" s="1">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C126" s="4">
         <v>2919</v>
@@ -13418,7 +13418,7 @@
     <row r="127" ht="17.25" spans="1:14">
       <c r="A127" s="15"/>
       <c r="B127" s="1">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2">
         <v>2920</v>
@@ -13462,7 +13462,7 @@
     <row r="128" ht="17.25" spans="1:14">
       <c r="A128" s="15"/>
       <c r="B128" s="1">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C128" s="4">
         <v>2921</v>
@@ -13506,7 +13506,7 @@
     <row r="129" ht="17.25" spans="1:14">
       <c r="A129" s="15"/>
       <c r="B129" s="1">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2">
         <v>2922</v>
@@ -13550,7 +13550,7 @@
     <row r="130" ht="17.25" spans="1:14">
       <c r="A130" s="15"/>
       <c r="B130" s="1">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C130" s="39">
         <v>2001</v>
@@ -13594,7 +13594,7 @@
     <row r="131" ht="17.25" spans="1:14">
       <c r="A131" s="15"/>
       <c r="B131" s="1">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C131" s="40">
         <v>2011</v>
@@ -13638,7 +13638,7 @@
     <row r="132" ht="17.25" spans="1:14">
       <c r="A132" s="15"/>
       <c r="B132" s="1">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C132" s="41">
         <v>2022</v>
@@ -13682,7 +13682,7 @@
     <row r="133" ht="17.25" spans="1:14">
       <c r="A133" s="15"/>
       <c r="B133" s="1">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C133" s="42">
         <v>2034</v>
@@ -13726,7 +13726,7 @@
     <row r="134" ht="17.25" spans="1:14">
       <c r="A134" s="15"/>
       <c r="B134" s="1">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C134" s="40">
         <v>2012</v>
@@ -13770,7 +13770,7 @@
     <row r="135" ht="17.25" spans="1:14">
       <c r="A135" s="15"/>
       <c r="B135" s="1">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C135" s="42">
         <v>2036</v>
@@ -13814,7 +13814,7 @@
     <row r="136" ht="17.25" spans="1:14">
       <c r="A136" s="15"/>
       <c r="B136" s="1">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C136" s="42">
         <v>2037</v>
@@ -13858,7 +13858,7 @@
     <row r="137" ht="17.25" spans="1:14">
       <c r="A137" s="15"/>
       <c r="B137" s="1">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C137" s="39">
         <v>2004</v>
@@ -13902,7 +13902,7 @@
     <row r="138" ht="17.25" spans="1:14">
       <c r="A138" s="15"/>
       <c r="B138" s="1">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C138" s="39">
         <v>2501</v>
@@ -13946,7 +13946,7 @@
     <row r="139" ht="17.25" spans="1:14">
       <c r="A139" s="15"/>
       <c r="B139" s="1">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C139" s="39">
         <v>2508</v>
@@ -13990,7 +13990,7 @@
     <row r="140" ht="17.25" spans="1:14">
       <c r="A140" s="15"/>
       <c r="B140" s="1">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C140" s="40">
         <v>2517</v>
@@ -14034,7 +14034,7 @@
     <row r="141" ht="17.25" spans="1:14">
       <c r="A141" s="15"/>
       <c r="B141" s="1">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C141" s="41">
         <v>2531</v>
@@ -14078,7 +14078,7 @@
     <row r="142" ht="17.25" spans="1:14">
       <c r="A142" s="15"/>
       <c r="B142" s="1">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C142" s="42">
         <v>2043</v>
@@ -14122,7 +14122,7 @@
     <row r="143" ht="17.25" spans="1:14">
       <c r="A143" s="15"/>
       <c r="B143" s="1">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C143" s="39">
         <v>2505</v>
@@ -14166,7 +14166,7 @@
     <row r="144" ht="17.25" spans="1:14">
       <c r="A144" s="15"/>
       <c r="B144" s="1">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C144" s="41">
         <v>2533</v>
@@ -14210,7 +14210,7 @@
     <row r="145" ht="17.25" spans="1:14">
       <c r="A145" s="15"/>
       <c r="B145" s="1">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C145" s="40">
         <v>2017</v>
@@ -14254,7 +14254,7 @@
     <row r="146" ht="17.25" spans="1:14">
       <c r="A146" s="15"/>
       <c r="B146" s="1">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C146" s="42">
         <v>2040</v>
@@ -14298,7 +14298,7 @@
     <row r="147" ht="17.25" spans="1:14">
       <c r="A147" s="15"/>
       <c r="B147" s="1">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C147" s="42">
         <v>2548</v>
@@ -14342,7 +14342,7 @@
     <row r="148" ht="17.25" spans="1:14">
       <c r="A148" s="15"/>
       <c r="B148" s="1">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C148" s="40">
         <v>2019</v>
@@ -14386,7 +14386,7 @@
     <row r="149" ht="17.25" spans="1:14">
       <c r="A149" s="15"/>
       <c r="B149" s="1">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C149" s="40">
         <v>2020</v>
@@ -14430,7 +14430,7 @@
     <row r="150" ht="17.25" spans="1:14">
       <c r="A150" s="15"/>
       <c r="B150" s="1">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C150" s="40">
         <v>2021</v>
@@ -14474,7 +14474,7 @@
     <row r="151" ht="17.25" spans="1:14">
       <c r="A151" s="15"/>
       <c r="B151" s="1">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C151" s="42">
         <v>2549</v>
@@ -14518,7 +14518,7 @@
     <row r="152" ht="17.25" spans="1:14">
       <c r="A152" s="15"/>
       <c r="B152" s="1">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="C152" s="41">
         <v>2031</v>
@@ -14562,7 +14562,7 @@
     <row r="153" ht="17.25" spans="1:14">
       <c r="A153" s="15"/>
       <c r="B153" s="1">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C153" s="41">
         <v>2534</v>
@@ -14606,7 +14606,7 @@
     <row r="154" ht="17.25" spans="1:14">
       <c r="A154" s="15"/>
       <c r="B154" s="1">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C154" s="41">
         <v>2027</v>
@@ -14650,7 +14650,7 @@
     <row r="155" ht="17.25" spans="1:14">
       <c r="A155" s="15"/>
       <c r="B155" s="1">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C155" s="2">
         <v>2511</v>
@@ -14694,7 +14694,7 @@
     <row r="156" ht="17.25" spans="1:14">
       <c r="A156" s="15"/>
       <c r="B156" s="1">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C156" s="4">
         <v>2901</v>
@@ -14738,7 +14738,7 @@
     <row r="157" ht="17.25" spans="1:14">
       <c r="A157" s="15"/>
       <c r="B157" s="1">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2">
         <v>2524</v>
@@ -14782,7 +14782,7 @@
     <row r="158" ht="17.25" spans="1:14">
       <c r="A158" s="15"/>
       <c r="B158" s="1">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2">
         <v>2906</v>
@@ -14826,7 +14826,7 @@
     <row r="159" ht="17.25" spans="1:14">
       <c r="A159" s="15"/>
       <c r="B159" s="1">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C159" s="2">
         <v>2538</v>
@@ -14870,7 +14870,7 @@
     <row r="160" ht="17.25" spans="1:14">
       <c r="A160" s="15"/>
       <c r="B160" s="1">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C160" s="4">
         <v>2539</v>
@@ -14914,7 +14914,7 @@
     <row r="161" ht="17.25" spans="1:14">
       <c r="A161" s="15"/>
       <c r="B161" s="1">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="C161" s="4">
         <v>2553</v>
@@ -14958,7 +14958,7 @@
     <row r="162" ht="17.25" spans="1:14">
       <c r="A162" s="15"/>
       <c r="B162" s="1">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C162" s="2">
         <v>2554</v>
@@ -15002,7 +15002,7 @@
     <row r="163" ht="17.25" spans="1:14">
       <c r="A163" s="15"/>
       <c r="B163" s="1">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2">
         <v>2918</v>
@@ -15046,7 +15046,7 @@
     <row r="164" ht="17.25" spans="1:14">
       <c r="A164" s="15"/>
       <c r="B164" s="1">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C164" s="4">
         <v>2919</v>
@@ -15090,7 +15090,7 @@
     <row r="165" ht="17.25" spans="1:14">
       <c r="A165" s="15"/>
       <c r="B165" s="1">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C165" s="2">
         <v>2920</v>
@@ -15134,7 +15134,7 @@
     <row r="166" ht="17.25" spans="1:14">
       <c r="A166" s="15"/>
       <c r="B166" s="1">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C166" s="4">
         <v>2921</v>
@@ -15178,7 +15178,7 @@
     <row r="167" ht="17.25" spans="1:14">
       <c r="A167" s="15"/>
       <c r="B167" s="1">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C167" s="4">
         <v>3205</v>
@@ -15222,7 +15222,7 @@
     <row r="168" ht="17.25" spans="1:14">
       <c r="A168" s="15"/>
       <c r="B168" s="1">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C168" s="2">
         <v>2001</v>
@@ -15266,7 +15266,7 @@
     <row r="169" ht="17.25" spans="1:14">
       <c r="A169" s="15"/>
       <c r="B169" s="1">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="C169" s="4">
         <v>2002</v>
@@ -15310,7 +15310,7 @@
     <row r="170" ht="17.25" spans="1:14">
       <c r="A170" s="15"/>
       <c r="B170" s="1">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="C170" s="2">
         <v>2003</v>
@@ -15354,7 +15354,7 @@
     <row r="171" ht="17.25" spans="1:14">
       <c r="A171" s="15"/>
       <c r="B171" s="1">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C171" s="39">
         <v>2004</v>
@@ -15398,7 +15398,7 @@
     <row r="172" ht="17.25" spans="1:14">
       <c r="A172" s="15"/>
       <c r="B172" s="1">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C172" s="39">
         <v>2501</v>
@@ -15442,7 +15442,7 @@
     <row r="173" ht="17.25" spans="1:14">
       <c r="A173" s="15"/>
       <c r="B173" s="1">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C173" s="39">
         <v>2005</v>
@@ -15486,7 +15486,7 @@
     <row r="174" ht="17.25" spans="1:14">
       <c r="A174" s="15"/>
       <c r="B174" s="1">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="C174" s="39">
         <v>2502</v>
@@ -15530,7 +15530,7 @@
     <row r="175" ht="17.25" spans="1:14">
       <c r="A175" s="15"/>
       <c r="B175" s="1">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="C175" s="39">
         <v>2503</v>
@@ -15574,7 +15574,7 @@
     <row r="176" ht="17.25" spans="1:14">
       <c r="A176" s="15"/>
       <c r="B176" s="1">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="C176" s="39">
         <v>2006</v>
@@ -15618,7 +15618,7 @@
     <row r="177" ht="17.25" spans="1:14">
       <c r="A177" s="15"/>
       <c r="B177" s="1">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C177" s="39">
         <v>2504</v>
@@ -15662,7 +15662,7 @@
     <row r="178" ht="17.25" spans="1:14">
       <c r="A178" s="15"/>
       <c r="B178" s="1">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="C178" s="39">
         <v>2007</v>
@@ -15706,7 +15706,7 @@
     <row r="179" ht="17.25" spans="1:14">
       <c r="A179" s="15"/>
       <c r="B179" s="1">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C179" s="4">
         <v>2008</v>
@@ -15750,7 +15750,7 @@
     <row r="180" ht="17.25" spans="1:14">
       <c r="A180" s="15"/>
       <c r="B180" s="1">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C180" s="2">
         <v>2009</v>
@@ -15794,7 +15794,7 @@
     <row r="181" ht="17.25" spans="1:14">
       <c r="A181" s="15"/>
       <c r="B181" s="1">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="C181" s="2">
         <v>2505</v>
@@ -15838,7 +15838,7 @@
     <row r="182" ht="17.25" spans="1:14">
       <c r="A182" s="15"/>
       <c r="B182" s="1">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="C182" s="4">
         <v>2506</v>
@@ -15882,7 +15882,7 @@
     <row r="183" ht="17.25" spans="1:14">
       <c r="A183" s="15"/>
       <c r="B183" s="1">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="C183" s="2">
         <v>2507</v>
@@ -15926,7 +15926,7 @@
     <row r="184" ht="17.25" spans="1:14">
       <c r="A184" s="15"/>
       <c r="B184" s="1">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="C184" s="4">
         <v>2508</v>
@@ -15970,7 +15970,7 @@
     <row r="185" ht="17.25" spans="1:14">
       <c r="A185" s="15"/>
       <c r="B185" s="1">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="C185" s="2">
         <v>2509</v>
@@ -16014,7 +16014,7 @@
     <row r="186" ht="17.25" spans="1:14">
       <c r="A186" s="15"/>
       <c r="B186" s="1">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="C186" s="4">
         <v>2510</v>
@@ -16058,7 +16058,7 @@
     <row r="187" ht="17.25" spans="1:14">
       <c r="A187" s="15"/>
       <c r="B187" s="1">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="C187" s="2">
         <v>2511</v>
@@ -16102,7 +16102,7 @@
     <row r="188" ht="17.25" spans="1:14">
       <c r="A188" s="15"/>
       <c r="B188" s="1">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="C188" s="4">
         <v>2901</v>
@@ -16146,7 +16146,7 @@
     <row r="189" ht="17.25" spans="1:14">
       <c r="A189" s="15"/>
       <c r="B189" s="1">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="C189" s="4">
         <v>2512</v>
@@ -16190,7 +16190,7 @@
     <row r="190" ht="17.25" spans="1:14">
       <c r="A190" s="15"/>
       <c r="B190" s="1">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="C190" s="4">
         <v>2010</v>
@@ -16234,7 +16234,7 @@
     <row r="191" ht="17.25" spans="1:14">
       <c r="A191" s="15"/>
       <c r="B191" s="1">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="C191" s="2">
         <v>2513</v>
@@ -16278,7 +16278,7 @@
     <row r="192" ht="17.25" spans="1:14">
       <c r="A192" s="15"/>
       <c r="B192" s="1">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="C192" s="4">
         <v>2514</v>
@@ -16322,7 +16322,7 @@
     <row r="193" ht="17.25" spans="1:14">
       <c r="A193" s="15"/>
       <c r="B193" s="1">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="C193" s="2">
         <v>2922</v>
@@ -16366,7 +16366,7 @@
     <row r="194" ht="17.25" spans="1:14">
       <c r="A194" s="15"/>
       <c r="B194" s="1">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="C194" s="2">
         <v>2902</v>
@@ -16410,7 +16410,7 @@
     <row r="195" ht="17.25" spans="1:14">
       <c r="A195" s="15"/>
       <c r="B195" s="1">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="C195" s="4">
         <v>2903</v>
@@ -16454,7 +16454,7 @@
     <row r="196" ht="17.25" spans="1:14">
       <c r="A196" s="15"/>
       <c r="B196" s="1">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="C196" s="2">
         <v>2904</v>
@@ -16498,7 +16498,7 @@
     <row r="197" ht="17.25" spans="1:14">
       <c r="A197" s="15"/>
       <c r="B197" s="1">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="C197" s="4">
         <v>2905</v>
@@ -16542,7 +16542,7 @@
     <row r="198" ht="17.25" spans="1:14">
       <c r="A198" s="15"/>
       <c r="B198" s="1">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="C198" s="4">
         <v>3201</v>
@@ -16586,7 +16586,7 @@
     <row r="199" ht="17.25" spans="1:14">
       <c r="A199" s="15"/>
       <c r="B199" s="1">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C199" s="2">
         <v>2022</v>
@@ -16630,7 +16630,7 @@
     <row r="200" ht="17.25" spans="1:14">
       <c r="A200" s="15"/>
       <c r="B200" s="1">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="C200" s="4">
         <v>2023</v>
@@ -16674,7 +16674,7 @@
     <row r="201" ht="17.25" spans="1:14">
       <c r="A201" s="15"/>
       <c r="B201" s="1">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="C201" s="2">
         <v>2024</v>
@@ -16718,7 +16718,7 @@
     <row r="202" ht="17.25" spans="1:14">
       <c r="A202" s="15"/>
       <c r="B202" s="1">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="C202" s="4">
         <v>2025</v>
@@ -16762,7 +16762,7 @@
     <row r="203" ht="17.25" spans="1:14">
       <c r="A203" s="15"/>
       <c r="B203" s="1">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="C203" s="41">
         <v>2531</v>
@@ -16806,7 +16806,7 @@
     <row r="204" ht="17.25" spans="1:14">
       <c r="A204" s="15"/>
       <c r="B204" s="1">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="C204" s="41">
         <v>2026</v>
@@ -16850,7 +16850,7 @@
     <row r="205" ht="17.25" spans="1:14">
       <c r="A205" s="15"/>
       <c r="B205" s="1">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="C205" s="41">
         <v>2532</v>
@@ -16894,7 +16894,7 @@
     <row r="206" ht="17.25" spans="1:14">
       <c r="A206" s="15"/>
       <c r="B206" s="1">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C206" s="4">
         <v>2027</v>
@@ -16938,7 +16938,7 @@
     <row r="207" ht="17.25" spans="1:14">
       <c r="A207" s="15"/>
       <c r="B207" s="1">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C207" s="2">
         <v>2028</v>
@@ -16982,7 +16982,7 @@
     <row r="208" ht="17.25" spans="1:14">
       <c r="A208" s="15"/>
       <c r="B208" s="1">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C208" s="4">
         <v>2029</v>
@@ -17026,7 +17026,7 @@
     <row r="209" ht="17.25" spans="1:14">
       <c r="A209" s="15"/>
       <c r="B209" s="1">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C209" s="4">
         <v>2533</v>
@@ -17070,7 +17070,7 @@
     <row r="210" ht="17.25" spans="1:14">
       <c r="A210" s="15"/>
       <c r="B210" s="1">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="C210" s="2">
         <v>2030</v>
@@ -17114,7 +17114,7 @@
     <row r="211" ht="17.25" spans="1:14">
       <c r="A211" s="15"/>
       <c r="B211" s="1">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="C211" s="4">
         <v>2031</v>
@@ -17158,7 +17158,7 @@
     <row r="212" ht="17.25" spans="1:14">
       <c r="A212" s="15"/>
       <c r="B212" s="1">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="C212" s="2">
         <v>2534</v>
@@ -17202,7 +17202,7 @@
     <row r="213" ht="17.25" spans="1:14">
       <c r="A213" s="15"/>
       <c r="B213" s="1">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="C213" s="2">
         <v>2032</v>
@@ -17246,7 +17246,7 @@
     <row r="214" ht="17.25" spans="1:14">
       <c r="A214" s="15"/>
       <c r="B214" s="1">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="C214" s="4">
         <v>2033</v>
@@ -17290,7 +17290,7 @@
     <row r="215" ht="17.25" spans="1:14">
       <c r="A215" s="15"/>
       <c r="B215" s="1">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C215" s="4">
         <v>2535</v>
@@ -17334,7 +17334,7 @@
     <row r="216" ht="17.25" spans="1:14">
       <c r="A216" s="15"/>
       <c r="B216" s="1">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="C216" s="2">
         <v>2536</v>
@@ -17378,7 +17378,7 @@
     <row r="217" ht="17.25" spans="1:14">
       <c r="A217" s="15"/>
       <c r="B217" s="1">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="C217" s="4">
         <v>2537</v>
@@ -17422,7 +17422,7 @@
     <row r="218" ht="17.25" spans="1:14">
       <c r="A218" s="15"/>
       <c r="B218" s="1">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="C218" s="2">
         <v>2538</v>
@@ -17466,7 +17466,7 @@
     <row r="219" ht="17.25" spans="1:14">
       <c r="A219" s="15"/>
       <c r="B219" s="1">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="C219" s="4">
         <v>2539</v>
@@ -17510,7 +17510,7 @@
     <row r="220" ht="17.25" spans="1:14">
       <c r="A220" s="15"/>
       <c r="B220" s="1">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="C220" s="2">
         <v>2540</v>
@@ -17554,7 +17554,7 @@
     <row r="221" ht="17.25" spans="1:14">
       <c r="A221" s="15"/>
       <c r="B221" s="1">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="C221" s="4">
         <v>2541</v>
@@ -17598,7 +17598,7 @@
     <row r="222" ht="17.25" spans="1:14">
       <c r="A222" s="15"/>
       <c r="B222" s="1">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="C222" s="2">
         <v>2542</v>
@@ -17642,7 +17642,7 @@
     <row r="223" ht="17.25" spans="1:14">
       <c r="A223" s="15"/>
       <c r="B223" s="1">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="C223" s="4">
         <v>2535</v>
@@ -17686,7 +17686,7 @@
     <row r="224" ht="17.25" spans="1:14">
       <c r="A224" s="15"/>
       <c r="B224" s="1">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="C224" s="4">
         <v>2543</v>
@@ -17730,7 +17730,7 @@
     <row r="225" ht="17.25" spans="1:14">
       <c r="A225" s="15"/>
       <c r="B225" s="1">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="C225" s="2">
         <v>2544</v>
@@ -17774,7 +17774,7 @@
     <row r="226" ht="17.25" spans="1:14">
       <c r="A226" s="15"/>
       <c r="B226" s="1">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="C226" s="4">
         <v>2545</v>
@@ -17818,7 +17818,7 @@
     <row r="227" ht="17.25" spans="1:14">
       <c r="A227" s="15"/>
       <c r="B227" s="1">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="C227" s="4">
         <v>2911</v>
@@ -17862,7 +17862,7 @@
     <row r="228" ht="17.25" spans="1:14">
       <c r="A228" s="15"/>
       <c r="B228" s="1">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="C228" s="2">
         <v>2912</v>
@@ -17906,7 +17906,7 @@
     <row r="229" ht="17.25" spans="1:14">
       <c r="A229" s="15"/>
       <c r="B229" s="1">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="C229" s="4">
         <v>2913</v>
@@ -17950,7 +17950,7 @@
     <row r="230" ht="17.25" spans="1:14">
       <c r="A230" s="15"/>
       <c r="B230" s="1">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="C230" s="4">
         <v>3203</v>
@@ -17994,7 +17994,7 @@
     <row r="231" ht="17.25" spans="1:14">
       <c r="A231" s="15"/>
       <c r="B231" s="1">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="C231" s="2">
         <v>2034</v>
@@ -18038,7 +18038,7 @@
     <row r="232" ht="17.25" spans="1:14">
       <c r="A232" s="15"/>
       <c r="B232" s="1">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="C232" s="4">
         <v>2035</v>
@@ -18082,7 +18082,7 @@
     <row r="233" ht="17.25" spans="1:14">
       <c r="A233" s="15"/>
       <c r="B233" s="1">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="C233" s="2">
         <v>2036</v>
@@ -18126,7 +18126,7 @@
     <row r="234" ht="17.25" spans="1:14">
       <c r="A234" s="15"/>
       <c r="B234" s="1">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="C234" s="4">
         <v>2037</v>
@@ -18170,7 +18170,7 @@
     <row r="235" ht="17.25" spans="1:14">
       <c r="A235" s="15"/>
       <c r="B235" s="1">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="C235" s="2">
         <v>2038</v>
@@ -18214,7 +18214,7 @@
     <row r="236" ht="17.25" spans="1:14">
       <c r="A236" s="15"/>
       <c r="B236" s="1">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="C236" s="4">
         <v>2039</v>
@@ -18258,7 +18258,7 @@
     <row r="237" ht="17.25" spans="1:14">
       <c r="A237" s="15"/>
       <c r="B237" s="1">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="C237" s="2">
         <v>2546</v>
@@ -18302,7 +18302,7 @@
     <row r="238" ht="17.25" spans="1:14">
       <c r="A238" s="15"/>
       <c r="B238" s="1">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="C238" s="2">
         <v>2040</v>
@@ -18346,7 +18346,7 @@
     <row r="239" ht="17.25" spans="1:14">
       <c r="A239" s="15"/>
       <c r="B239" s="1">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="C239" s="4">
         <v>2041</v>
@@ -18390,7 +18390,7 @@
     <row r="240" ht="17.25" spans="1:14">
       <c r="A240" s="15"/>
       <c r="B240" s="1">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="C240" s="4">
         <v>2547</v>
@@ -18434,7 +18434,7 @@
     <row r="241" ht="17.25" spans="1:14">
       <c r="A241" s="15"/>
       <c r="B241" s="1">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="C241" s="2">
         <v>2548</v>
@@ -18478,7 +18478,7 @@
     <row r="242" ht="17.25" spans="1:14">
       <c r="A242" s="15"/>
       <c r="B242" s="1">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="C242" s="4">
         <v>2549</v>
@@ -18522,7 +18522,7 @@
     <row r="243" ht="17.25" spans="1:14">
       <c r="A243" s="15"/>
       <c r="B243" s="1">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="C243" s="2">
         <v>2042</v>
@@ -18566,7 +18566,7 @@
     <row r="244" ht="17.25" spans="1:14">
       <c r="A244" s="15"/>
       <c r="B244" s="1">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="C244" s="4">
         <v>2043</v>
@@ -18610,7 +18610,7 @@
     <row r="245" ht="17.25" spans="1:14">
       <c r="A245" s="15"/>
       <c r="B245" s="1">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C245" s="2">
         <v>2044</v>
@@ -18654,7 +18654,7 @@
     <row r="246" ht="17.25" spans="1:14">
       <c r="A246" s="15"/>
       <c r="B246" s="1">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="C246" s="2">
         <v>2550</v>
@@ -18698,7 +18698,7 @@
     <row r="247" ht="17.25" spans="1:14">
       <c r="A247" s="15"/>
       <c r="B247" s="1">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="C247" s="4">
         <v>2551</v>
@@ -18742,7 +18742,7 @@
     <row r="248" ht="17.25" spans="1:14">
       <c r="A248" s="15"/>
       <c r="B248" s="1">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="C248" s="4">
         <v>2045</v>
@@ -18786,7 +18786,7 @@
     <row r="249" ht="17.25" spans="1:14">
       <c r="A249" s="15"/>
       <c r="B249" s="1">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="C249" s="2">
         <v>2552</v>
@@ -18830,7 +18830,7 @@
     <row r="250" ht="17.25" spans="1:14">
       <c r="A250" s="15"/>
       <c r="B250" s="1">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="C250" s="4">
         <v>2553</v>
@@ -18874,7 +18874,7 @@
     <row r="251" ht="17.25" spans="1:14">
       <c r="A251" s="15"/>
       <c r="B251" s="1">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="C251" s="2">
         <v>2554</v>
@@ -18918,7 +18918,7 @@
     <row r="252" ht="17.25" spans="1:14">
       <c r="A252" s="15"/>
       <c r="B252" s="1">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="C252" s="4">
         <v>2555</v>
@@ -18962,7 +18962,7 @@
     <row r="253" ht="17.25" spans="1:14">
       <c r="A253" s="15"/>
       <c r="B253" s="1">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="C253" s="2">
         <v>2556</v>
@@ -19006,7 +19006,7 @@
     <row r="254" ht="17.25" spans="1:14">
       <c r="A254" s="15"/>
       <c r="B254" s="1">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="C254" s="4">
         <v>2557</v>
@@ -19050,7 +19050,7 @@
     <row r="255" ht="17.25" spans="1:14">
       <c r="A255" s="15"/>
       <c r="B255" s="1">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="C255" s="2">
         <v>2558</v>
@@ -19094,7 +19094,7 @@
     <row r="256" ht="17.25" spans="1:14">
       <c r="A256" s="15"/>
       <c r="B256" s="1">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="C256" s="4">
         <v>2559</v>
@@ -19138,7 +19138,7 @@
     <row r="257" ht="17.25" spans="1:14">
       <c r="A257" s="15"/>
       <c r="B257" s="1">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="C257" s="2">
         <v>2914</v>
@@ -19182,7 +19182,7 @@
     <row r="258" ht="17.25" spans="1:14">
       <c r="A258" s="15"/>
       <c r="B258" s="1">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="C258" s="4">
         <v>2915</v>
@@ -19226,7 +19226,7 @@
     <row r="259" ht="17.25" spans="1:14">
       <c r="A259" s="15"/>
       <c r="B259" s="1">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="C259" s="2">
         <v>2916</v>
@@ -19270,7 +19270,7 @@
     <row r="260" ht="17.25" spans="1:14">
       <c r="A260" s="15"/>
       <c r="B260" s="1">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="C260" s="4">
         <v>2917</v>
@@ -19314,7 +19314,7 @@
     <row r="261" ht="17.25" spans="1:14">
       <c r="A261" s="15"/>
       <c r="B261" s="1">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c r="C261" s="2">
         <v>3204</v>
@@ -19341,11 +19341,11 @@
         <v>9992</v>
       </c>
       <c r="J261" s="27">
-        <f t="shared" ref="J261:J292" si="35">INT(1/ROUND((H261/I261*100),6)*100)</f>
+        <f t="shared" ref="J261:J294" si="35">INT(1/ROUND((H261/I261*100),6)*100)</f>
         <v>99</v>
       </c>
       <c r="K261" s="1" t="str">
-        <f t="shared" ref="K261:K292" si="36">"占总概率为"&amp;ROUND((H261/I261*100),6)&amp;"%"</f>
+        <f t="shared" ref="K261:K294" si="36">"占总概率为"&amp;ROUND((H261/I261*100),6)&amp;"%"</f>
         <v>占总概率为1.000801%</v>
       </c>
       <c r="L261" s="28" t="str">
@@ -19358,7 +19358,7 @@
     <row r="262" ht="17.25" spans="1:14">
       <c r="A262" s="15"/>
       <c r="B262" s="1">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="C262" s="2">
         <v>2011</v>
@@ -19402,7 +19402,7 @@
     <row r="263" ht="17.25" spans="1:14">
       <c r="A263" s="15"/>
       <c r="B263" s="1">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C263" s="4">
         <v>2012</v>
@@ -19446,7 +19446,7 @@
     <row r="264" ht="17.25" spans="1:14">
       <c r="A264" s="15"/>
       <c r="B264" s="1">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="C264" s="2">
         <v>2013</v>
@@ -19490,7 +19490,7 @@
     <row r="265" ht="17.25" spans="1:14">
       <c r="A265" s="15"/>
       <c r="B265" s="1">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="C265" s="4">
         <v>2014</v>
@@ -19534,7 +19534,7 @@
     <row r="266" ht="17.25" spans="1:14">
       <c r="A266" s="15"/>
       <c r="B266" s="1">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="C266" s="2">
         <v>2015</v>
@@ -19578,7 +19578,7 @@
     <row r="267" ht="17.25" spans="1:14">
       <c r="A267" s="15"/>
       <c r="B267" s="1">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C267" s="4">
         <v>2016</v>
@@ -19622,7 +19622,7 @@
     <row r="268" ht="17.25" spans="1:14">
       <c r="A268" s="15"/>
       <c r="B268" s="1">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="C268" s="40">
         <v>2516</v>
@@ -19666,7 +19666,7 @@
     <row r="269" ht="17.25" spans="1:14">
       <c r="A269" s="15"/>
       <c r="B269" s="1">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="C269" s="40">
         <v>2017</v>
@@ -19710,7 +19710,7 @@
     <row r="270" ht="17.25" spans="1:14">
       <c r="A270" s="15"/>
       <c r="B270" s="1">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="C270" s="40">
         <v>2517</v>
@@ -19754,7 +19754,7 @@
     <row r="271" ht="17.25" spans="1:14">
       <c r="A271" s="15"/>
       <c r="B271" s="1">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="C271" s="40">
         <v>2560</v>
@@ -19798,7 +19798,7 @@
     <row r="272" ht="17.25" spans="1:14">
       <c r="A272" s="15"/>
       <c r="B272" s="1">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="C272" s="4">
         <v>2019</v>
@@ -19842,7 +19842,7 @@
     <row r="273" ht="17.25" spans="1:14">
       <c r="A273" s="15"/>
       <c r="B273" s="1">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="C273" s="2">
         <v>2020</v>
@@ -19886,7 +19886,7 @@
     <row r="274" ht="17.25" spans="1:14">
       <c r="A274" s="15"/>
       <c r="B274" s="1">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="C274" s="4">
         <v>2021</v>
@@ -19930,7 +19930,7 @@
     <row r="275" ht="17.25" spans="1:14">
       <c r="A275" s="15"/>
       <c r="B275" s="1">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="C275" s="2">
         <v>2518</v>
@@ -19974,7 +19974,7 @@
     <row r="276" ht="17.25" spans="1:14">
       <c r="A276" s="15"/>
       <c r="B276" s="1">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="C276" s="4">
         <v>2519</v>
@@ -20018,7 +20018,7 @@
     <row r="277" ht="17.25" spans="1:14">
       <c r="A277" s="15"/>
       <c r="B277" s="1">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="C277" s="2">
         <v>2520</v>
@@ -20062,7 +20062,7 @@
     <row r="278" ht="17.25" spans="1:14">
       <c r="A278" s="15"/>
       <c r="B278" s="1">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="C278" s="4">
         <v>2521</v>
@@ -20106,7 +20106,7 @@
     <row r="279" ht="17.25" spans="1:14">
       <c r="A279" s="15"/>
       <c r="B279" s="1">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="C279" s="2">
         <v>2522</v>
@@ -20150,7 +20150,7 @@
     <row r="280" ht="17.25" spans="1:14">
       <c r="A280" s="15"/>
       <c r="B280" s="1">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="C280" s="4">
         <v>2523</v>
@@ -20194,7 +20194,7 @@
     <row r="281" ht="17.25" spans="1:14">
       <c r="A281" s="15"/>
       <c r="B281" s="1">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="C281" s="2">
         <v>2524</v>
@@ -20238,7 +20238,7 @@
     <row r="282" ht="17.25" spans="1:14">
       <c r="A282" s="15"/>
       <c r="B282" s="1">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="C282" s="2">
         <v>2906</v>
@@ -20282,7 +20282,7 @@
     <row r="283" ht="17.25" spans="1:14">
       <c r="A283" s="15"/>
       <c r="B283" s="1">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="C283" s="4">
         <v>2525</v>
@@ -20326,7 +20326,7 @@
     <row r="284" ht="17.25" spans="1:14">
       <c r="A284" s="15"/>
       <c r="B284" s="1">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="C284" s="2">
         <v>2526</v>
@@ -20370,7 +20370,7 @@
     <row r="285" ht="17.25" spans="1:14">
       <c r="A285" s="15"/>
       <c r="B285" s="1">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="C285" s="4">
         <v>2527</v>
@@ -20414,7 +20414,7 @@
     <row r="286" ht="17.25" spans="1:14">
       <c r="A286" s="15"/>
       <c r="B286" s="1">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="C286" s="2">
         <v>2528</v>
@@ -20458,7 +20458,7 @@
     <row r="287" ht="17.25" spans="1:14">
       <c r="A287" s="15"/>
       <c r="B287" s="1">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="C287" s="4">
         <v>2529</v>
@@ -20502,7 +20502,7 @@
     <row r="288" ht="17.25" spans="1:14">
       <c r="A288" s="15"/>
       <c r="B288" s="1">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="C288" s="2">
         <v>2530</v>
@@ -20546,7 +20546,7 @@
     <row r="289" ht="17.25" spans="1:14">
       <c r="A289" s="15"/>
       <c r="B289" s="1">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="C289" s="4">
         <v>2907</v>
@@ -20590,7 +20590,7 @@
     <row r="290" ht="17.25" spans="1:14">
       <c r="A290" s="15"/>
       <c r="B290" s="1">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="C290" s="2">
         <v>2908</v>
@@ -20634,7 +20634,7 @@
     <row r="291" ht="17.25" spans="1:14">
       <c r="A291" s="15"/>
       <c r="B291" s="1">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="C291" s="4">
         <v>2909</v>
@@ -20678,7 +20678,7 @@
     <row r="292" ht="17.25" spans="1:14">
       <c r="A292" s="15"/>
       <c r="B292" s="1">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="C292" s="2">
         <v>2910</v>
@@ -20722,7 +20722,7 @@
     <row r="293" ht="17.25" spans="1:14">
       <c r="A293" s="15"/>
       <c r="B293" s="1">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="C293" s="2">
         <v>3202</v>
@@ -20749,11 +20749,11 @@
         <v>9992</v>
       </c>
       <c r="J293" s="27">
-        <f>INT(1/ROUND((H293/I293*100),6)*100)</f>
+        <f t="shared" si="35"/>
         <v>99</v>
       </c>
       <c r="K293" s="1" t="str">
-        <f>"占总概率为"&amp;ROUND((H293/I293*100),6)&amp;"%"</f>
+        <f t="shared" si="36"/>
         <v>占总概率为1.000801%</v>
       </c>
       <c r="L293" s="28" t="str">
@@ -20766,7 +20766,7 @@
     <row r="294" ht="17.25" spans="1:14">
       <c r="A294" s="15"/>
       <c r="B294" s="1">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="C294" s="39">
         <v>2501</v>
@@ -20793,11 +20793,11 @@
         <v>1400</v>
       </c>
       <c r="J294" s="27">
-        <f>INT(1/ROUND((H294/I294*100),6)*100)</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="K294" s="1" t="str">
-        <f>"占总概率为"&amp;ROUND((H294/I294*100),6)&amp;"%"</f>
+        <f t="shared" si="36"/>
         <v>占总概率为7.142857%</v>
       </c>
       <c r="L294" s="28" t="str">
@@ -20810,7 +20810,7 @@
     <row r="295" ht="17.25" spans="1:14">
       <c r="A295" s="15"/>
       <c r="B295" s="1">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="C295" s="39">
         <v>2502</v>
@@ -20854,7 +20854,7 @@
     <row r="296" ht="17.25" spans="1:14">
       <c r="A296" s="15"/>
       <c r="B296" s="1">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="C296" s="39">
         <v>2503</v>
@@ -20898,7 +20898,7 @@
     <row r="297" ht="17.25" spans="1:14">
       <c r="A297" s="15"/>
       <c r="B297" s="1">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="C297" s="39">
         <v>2504</v>
@@ -20942,7 +20942,7 @@
     <row r="298" ht="17.25" spans="1:14">
       <c r="A298" s="15"/>
       <c r="B298" s="1">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="C298" s="2">
         <v>2505</v>
@@ -20986,7 +20986,7 @@
     <row r="299" ht="17.25" spans="1:14">
       <c r="A299" s="15"/>
       <c r="B299" s="1">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="C299" s="4">
         <v>2506</v>
@@ -21030,7 +21030,7 @@
     <row r="300" ht="17.25" spans="1:14">
       <c r="A300" s="15"/>
       <c r="B300" s="1">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="C300" s="2">
         <v>2507</v>
@@ -21074,7 +21074,7 @@
     <row r="301" ht="17.25" spans="1:14">
       <c r="A301" s="15"/>
       <c r="B301" s="1">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="C301" s="4">
         <v>2508</v>
@@ -21118,7 +21118,7 @@
     <row r="302" ht="17.25" spans="1:14">
       <c r="A302" s="15"/>
       <c r="B302" s="1">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="C302" s="2">
         <v>2509</v>
@@ -21162,7 +21162,7 @@
     <row r="303" ht="17.25" spans="1:14">
       <c r="A303" s="15"/>
       <c r="B303" s="1">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="C303" s="4">
         <v>2510</v>
@@ -21206,7 +21206,7 @@
     <row r="304" ht="17.25" spans="1:14">
       <c r="A304" s="15"/>
       <c r="B304" s="1">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="C304" s="2">
         <v>2511</v>
@@ -21250,7 +21250,7 @@
     <row r="305" ht="17.25" spans="1:14">
       <c r="A305" s="15"/>
       <c r="B305" s="1">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="C305" s="4">
         <v>2512</v>
@@ -21294,7 +21294,7 @@
     <row r="306" ht="17.25" spans="1:14">
       <c r="A306" s="15"/>
       <c r="B306" s="1">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="C306" s="2">
         <v>2513</v>
@@ -21338,7 +21338,7 @@
     <row r="307" ht="17.25" spans="1:14">
       <c r="A307" s="15"/>
       <c r="B307" s="1">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="C307" s="4">
         <v>2514</v>
@@ -21382,7 +21382,7 @@
     <row r="308" ht="17.25" spans="1:14">
       <c r="A308" s="15"/>
       <c r="B308" s="1">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="C308" s="41">
         <v>2531</v>
@@ -21426,7 +21426,7 @@
     <row r="309" ht="17.25" spans="1:14">
       <c r="A309" s="15"/>
       <c r="B309" s="1">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="C309" s="41">
         <v>2532</v>
@@ -21470,7 +21470,7 @@
     <row r="310" ht="17.25" spans="1:14">
       <c r="A310" s="15"/>
       <c r="B310" s="1">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="C310" s="4">
         <v>2533</v>
@@ -21514,7 +21514,7 @@
     <row r="311" ht="17.25" spans="1:14">
       <c r="A311" s="15"/>
       <c r="B311" s="1">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="C311" s="2">
         <v>2534</v>
@@ -21558,7 +21558,7 @@
     <row r="312" ht="17.25" spans="1:14">
       <c r="A312" s="15"/>
       <c r="B312" s="1">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="C312" s="4">
         <v>2535</v>
@@ -21602,7 +21602,7 @@
     <row r="313" ht="17.25" spans="1:14">
       <c r="A313" s="15"/>
       <c r="B313" s="1">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="C313" s="2">
         <v>2536</v>
@@ -21646,7 +21646,7 @@
     <row r="314" ht="17.25" spans="1:14">
       <c r="A314" s="15"/>
       <c r="B314" s="1">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C314" s="4">
         <v>2537</v>
@@ -21690,7 +21690,7 @@
     <row r="315" ht="17.25" spans="1:14">
       <c r="A315" s="15"/>
       <c r="B315" s="1">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="C315" s="2">
         <v>2538</v>
@@ -21734,7 +21734,7 @@
     <row r="316" ht="17.25" spans="1:14">
       <c r="A316" s="15"/>
       <c r="B316" s="1">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="C316" s="4">
         <v>2539</v>
@@ -21778,7 +21778,7 @@
     <row r="317" ht="17.25" spans="1:14">
       <c r="A317" s="15"/>
       <c r="B317" s="1">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="C317" s="2">
         <v>2540</v>
@@ -21822,7 +21822,7 @@
     <row r="318" ht="17.25" spans="1:14">
       <c r="A318" s="15"/>
       <c r="B318" s="1">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="C318" s="4">
         <v>2541</v>
@@ -21866,7 +21866,7 @@
     <row r="319" ht="17.25" spans="1:14">
       <c r="A319" s="15"/>
       <c r="B319" s="1">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="C319" s="2">
         <v>2542</v>
@@ -21910,7 +21910,7 @@
     <row r="320" ht="17.25" spans="1:14">
       <c r="A320" s="15"/>
       <c r="B320" s="1">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="C320" s="4">
         <v>2535</v>
@@ -21954,7 +21954,7 @@
     <row r="321" ht="17.25" spans="1:14">
       <c r="A321" s="15"/>
       <c r="B321" s="1">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="C321" s="4">
         <v>2543</v>
@@ -21998,7 +21998,7 @@
     <row r="322" ht="17.25" spans="1:14">
       <c r="A322" s="15"/>
       <c r="B322" s="1">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="C322" s="2">
         <v>2544</v>
@@ -22042,7 +22042,7 @@
     <row r="323" ht="17.25" spans="1:14">
       <c r="A323" s="15"/>
       <c r="B323" s="1">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="C323" s="4">
         <v>2545</v>
@@ -22086,7 +22086,7 @@
     <row r="324" ht="17.25" spans="1:14">
       <c r="A324" s="15"/>
       <c r="B324" s="1">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="C324" s="2">
         <v>2546</v>
@@ -22130,7 +22130,7 @@
     <row r="325" ht="17.25" spans="1:14">
       <c r="A325" s="15"/>
       <c r="B325" s="1">
-        <v>169</v>
+        <v>321</v>
       </c>
       <c r="C325" s="4">
         <v>2547</v>
@@ -22174,7 +22174,7 @@
     <row r="326" ht="17.25" spans="1:14">
       <c r="A326" s="15"/>
       <c r="B326" s="1">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="C326" s="2">
         <v>2548</v>
@@ -22218,7 +22218,7 @@
     <row r="327" ht="17.25" spans="1:14">
       <c r="A327" s="15"/>
       <c r="B327" s="1">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="C327" s="4">
         <v>2549</v>
@@ -22262,7 +22262,7 @@
     <row r="328" ht="17.25" spans="1:14">
       <c r="A328" s="15"/>
       <c r="B328" s="1">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="C328" s="2">
         <v>2550</v>
@@ -22306,7 +22306,7 @@
     <row r="329" ht="17.25" spans="1:14">
       <c r="A329" s="15"/>
       <c r="B329" s="1">
-        <v>169</v>
+        <v>325</v>
       </c>
       <c r="C329" s="4">
         <v>2551</v>
@@ -22350,7 +22350,7 @@
     <row r="330" ht="17.25" spans="1:14">
       <c r="A330" s="15"/>
       <c r="B330" s="1">
-        <v>169</v>
+        <v>326</v>
       </c>
       <c r="C330" s="2">
         <v>2552</v>
@@ -22394,7 +22394,7 @@
     <row r="331" ht="17.25" spans="1:14">
       <c r="A331" s="15"/>
       <c r="B331" s="1">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="C331" s="4">
         <v>2553</v>
@@ -22438,7 +22438,7 @@
     <row r="332" ht="17.25" spans="1:14">
       <c r="A332" s="15"/>
       <c r="B332" s="1">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="C332" s="2">
         <v>2554</v>
@@ -22482,7 +22482,7 @@
     <row r="333" ht="17.25" spans="1:14">
       <c r="A333" s="15"/>
       <c r="B333" s="1">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="C333" s="4">
         <v>2555</v>
@@ -22526,7 +22526,7 @@
     <row r="334" ht="17.25" spans="1:14">
       <c r="A334" s="15"/>
       <c r="B334" s="1">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="C334" s="2">
         <v>2556</v>
@@ -22570,7 +22570,7 @@
     <row r="335" ht="17.25" spans="1:14">
       <c r="A335" s="15"/>
       <c r="B335" s="1">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="C335" s="4">
         <v>2557</v>
@@ -22614,7 +22614,7 @@
     <row r="336" ht="17.25" spans="1:14">
       <c r="A336" s="15"/>
       <c r="B336" s="1">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="C336" s="2">
         <v>2558</v>
@@ -22658,7 +22658,7 @@
     <row r="337" ht="17.25" spans="1:14">
       <c r="A337" s="15"/>
       <c r="B337" s="1">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="C337" s="4">
         <v>2559</v>
@@ -22702,7 +22702,7 @@
     <row r="338" ht="17.25" spans="1:14">
       <c r="A338" s="15"/>
       <c r="B338" s="1">
-        <v>169</v>
+        <v>334</v>
       </c>
       <c r="C338" s="40">
         <v>2516</v>
@@ -22746,7 +22746,7 @@
     <row r="339" ht="17.25" spans="1:14">
       <c r="A339" s="15"/>
       <c r="B339" s="1">
-        <v>169</v>
+        <v>335</v>
       </c>
       <c r="C339" s="40">
         <v>2517</v>
@@ -22790,7 +22790,7 @@
     <row r="340" ht="17.25" spans="1:14">
       <c r="A340" s="15"/>
       <c r="B340" s="1">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="C340" s="40">
         <v>2560</v>
@@ -22834,7 +22834,7 @@
     <row r="341" ht="17.25" spans="1:14">
       <c r="A341" s="15"/>
       <c r="B341" s="1">
-        <v>169</v>
+        <v>337</v>
       </c>
       <c r="C341" s="2">
         <v>2518</v>
@@ -22878,7 +22878,7 @@
     <row r="342" ht="17.25" spans="1:14">
       <c r="A342" s="15"/>
       <c r="B342" s="1">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="C342" s="4">
         <v>2519</v>
@@ -22922,7 +22922,7 @@
     <row r="343" ht="17.25" spans="1:14">
       <c r="A343" s="15"/>
       <c r="B343" s="1">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="C343" s="2">
         <v>2520</v>
@@ -22966,7 +22966,7 @@
     <row r="344" ht="17.25" spans="1:14">
       <c r="A344" s="15"/>
       <c r="B344" s="1">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="C344" s="4">
         <v>2521</v>
@@ -23010,7 +23010,7 @@
     <row r="345" ht="17.25" spans="1:14">
       <c r="A345" s="15"/>
       <c r="B345" s="1">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="C345" s="2">
         <v>2522</v>
@@ -23054,7 +23054,7 @@
     <row r="346" ht="17.25" spans="1:14">
       <c r="A346" s="15"/>
       <c r="B346" s="1">
-        <v>169</v>
+        <v>342</v>
       </c>
       <c r="C346" s="4">
         <v>2523</v>
@@ -23098,7 +23098,7 @@
     <row r="347" ht="17.25" spans="1:14">
       <c r="A347" s="15"/>
       <c r="B347" s="1">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="C347" s="2">
         <v>2524</v>
@@ -23142,7 +23142,7 @@
     <row r="348" ht="17.25" spans="1:14">
       <c r="A348" s="15"/>
       <c r="B348" s="1">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="C348" s="4">
         <v>2525</v>
@@ -23186,7 +23186,7 @@
     <row r="349" ht="17.25" spans="1:14">
       <c r="A349" s="15"/>
       <c r="B349" s="1">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="C349" s="2">
         <v>2526</v>
@@ -23230,7 +23230,7 @@
     <row r="350" ht="17.25" spans="1:14">
       <c r="A350" s="15"/>
       <c r="B350" s="1">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="C350" s="4">
         <v>2527</v>
@@ -23274,7 +23274,7 @@
     <row r="351" ht="17.25" spans="1:14">
       <c r="A351" s="15"/>
       <c r="B351" s="1">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="C351" s="2">
         <v>2528</v>
@@ -23318,7 +23318,7 @@
     <row r="352" ht="17.25" spans="1:14">
       <c r="A352" s="15"/>
       <c r="B352" s="1">
-        <v>169</v>
+        <v>348</v>
       </c>
       <c r="C352" s="4">
         <v>2529</v>
@@ -23362,7 +23362,7 @@
     <row r="353" ht="17.25" spans="1:14">
       <c r="A353" s="15"/>
       <c r="B353" s="1">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C353" s="2">
         <v>2530</v>
@@ -23406,7 +23406,7 @@
     <row r="354" ht="17.25" spans="1:14">
       <c r="A354" s="15"/>
       <c r="B354" s="1">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="C354" s="4">
         <v>2901</v>
@@ -23450,7 +23450,7 @@
     <row r="355" ht="17.25" spans="1:14">
       <c r="A355" s="15"/>
       <c r="B355" s="1">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="C355" s="2">
         <v>2922</v>
@@ -23494,7 +23494,7 @@
     <row r="356" ht="17.25" spans="1:14">
       <c r="A356" s="15"/>
       <c r="B356" s="1">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="C356" s="2">
         <v>2902</v>
@@ -23538,7 +23538,7 @@
     <row r="357" ht="17.25" spans="1:14">
       <c r="A357" s="15"/>
       <c r="B357" s="1">
-        <v>174</v>
+        <v>353</v>
       </c>
       <c r="C357" s="4">
         <v>2903</v>
@@ -23582,7 +23582,7 @@
     <row r="358" ht="17.25" spans="1:14">
       <c r="A358" s="15"/>
       <c r="B358" s="1">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="C358" s="2">
         <v>2904</v>
@@ -23626,7 +23626,7 @@
     <row r="359" ht="17.25" spans="1:14">
       <c r="A359" s="15"/>
       <c r="B359" s="1">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="C359" s="4">
         <v>2905</v>
@@ -23670,7 +23670,7 @@
     <row r="360" ht="17.25" spans="1:14">
       <c r="A360" s="15"/>
       <c r="B360" s="1">
-        <v>177</v>
+        <v>356</v>
       </c>
       <c r="C360" s="4">
         <v>2911</v>
@@ -23714,7 +23714,7 @@
     <row r="361" ht="17.25" spans="1:14">
       <c r="A361" s="15"/>
       <c r="B361" s="1">
-        <v>178</v>
+        <v>357</v>
       </c>
       <c r="C361" s="2">
         <v>2912</v>
@@ -23758,7 +23758,7 @@
     <row r="362" ht="17.25" spans="1:14">
       <c r="A362" s="15"/>
       <c r="B362" s="1">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="C362" s="4">
         <v>2913</v>
@@ -23802,7 +23802,7 @@
     <row r="363" ht="17.25" spans="1:14">
       <c r="A363" s="15"/>
       <c r="B363" s="1">
-        <v>180</v>
+        <v>359</v>
       </c>
       <c r="C363" s="2">
         <v>2914</v>
@@ -23846,7 +23846,7 @@
     <row r="364" ht="17.25" spans="1:14">
       <c r="A364" s="15"/>
       <c r="B364" s="1">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="C364" s="4">
         <v>2915</v>
@@ -23890,7 +23890,7 @@
     <row r="365" ht="17.25" spans="1:14">
       <c r="A365" s="15"/>
       <c r="B365" s="1">
-        <v>182</v>
+        <v>361</v>
       </c>
       <c r="C365" s="2">
         <v>2916</v>
@@ -23934,7 +23934,7 @@
     <row r="366" ht="17.25" spans="1:14">
       <c r="A366" s="15"/>
       <c r="B366" s="1">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="C366" s="4">
         <v>2917</v>
@@ -23978,7 +23978,7 @@
     <row r="367" ht="17.25" spans="1:14">
       <c r="A367" s="15"/>
       <c r="B367" s="1">
-        <v>184</v>
+        <v>363</v>
       </c>
       <c r="C367" s="2">
         <v>2906</v>
@@ -24022,7 +24022,7 @@
     <row r="368" ht="17.25" spans="1:14">
       <c r="A368" s="15"/>
       <c r="B368" s="1">
-        <v>185</v>
+        <v>364</v>
       </c>
       <c r="C368" s="4">
         <v>2907</v>
@@ -24066,7 +24066,7 @@
     <row r="369" ht="17.25" spans="1:14">
       <c r="A369" s="15"/>
       <c r="B369" s="1">
-        <v>186</v>
+        <v>365</v>
       </c>
       <c r="C369" s="2">
         <v>2908</v>
@@ -24110,7 +24110,7 @@
     <row r="370" ht="17.25" spans="1:14">
       <c r="A370" s="15"/>
       <c r="B370" s="1">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="C370" s="4">
         <v>2909</v>
@@ -24154,7 +24154,7 @@
     <row r="371" ht="17.25" spans="1:14">
       <c r="A371" s="15"/>
       <c r="B371" s="1">
-        <v>188</v>
+        <v>367</v>
       </c>
       <c r="C371" s="2">
         <v>2910</v>
